--- a/TrucksProject/TrucksServer/trucks/truck_optimization.xlsx
+++ b/TrucksProject/TrucksServer/trucks/truck_optimization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Materiale</t>
   </si>
@@ -75,18 +75,36 @@
     <t>GORGONZOLA DOP INTENSO 1/8 D</t>
   </si>
   <si>
+    <t>050762</t>
+  </si>
+  <si>
+    <t>GORGONZOLA D.O.P. 1/8</t>
+  </si>
+  <si>
     <t>092519</t>
   </si>
   <si>
     <t>MOZZARELLA DI LATTE DI BUFALA G 125 X 8</t>
   </si>
   <si>
+    <t>099495</t>
+  </si>
+  <si>
+    <t>MOZZ FETTE GALB PROF.K1 ESTERO</t>
+  </si>
+  <si>
     <t>115360</t>
   </si>
   <si>
     <t>MASCARPONE 250 ALDI E-P</t>
   </si>
   <si>
+    <t>132086</t>
+  </si>
+  <si>
+    <t>GALBANI MOZZARELLA CUCINA 400G</t>
+  </si>
+  <si>
     <t>137260</t>
   </si>
   <si>
@@ -105,106 +123,88 @@
     <t>GORG DOP PICCANTE KAUFLAND 200GR</t>
   </si>
   <si>
+    <t>156457</t>
+  </si>
+  <si>
+    <t>MOZZ.MINI BUFALA 150G EXP</t>
+  </si>
+  <si>
+    <t>156566</t>
+  </si>
+  <si>
+    <t>MASCARPONE D'ANTELLI 250G DK PL</t>
+  </si>
+  <si>
+    <t>171560</t>
+  </si>
+  <si>
+    <t>MASCARPONE  K 2 GENERALE</t>
+  </si>
+  <si>
+    <t>172023</t>
+  </si>
+  <si>
+    <t>MASCARPONE 250 G D  FRESENIUS</t>
+  </si>
+  <si>
+    <t>176228</t>
+  </si>
+  <si>
+    <t>MASCARPONE 250G CUCINA ALDI DE</t>
+  </si>
+  <si>
+    <t>176229</t>
+  </si>
+  <si>
+    <t>MOZZA 400G CUCINA ALDI</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Ideal per truck:</t>
+  </si>
+  <si>
+    <t>Real per truck:</t>
+  </si>
+  <si>
+    <t>Closeness Percentage:</t>
+  </si>
+  <si>
+    <t>115349</t>
+  </si>
+  <si>
+    <t>MOZZA GALBANI 125G DE</t>
+  </si>
+  <si>
+    <t>131460</t>
+  </si>
+  <si>
+    <t>S.L. MINI K1 DA 5G</t>
+  </si>
+  <si>
+    <t>131578</t>
+  </si>
+  <si>
+    <t>MOZZARELLA K1 G.PRO X8 D-A-DK-S</t>
+  </si>
+  <si>
     <t>156411</t>
   </si>
   <si>
     <t>GALBANI RICOTTA 250G  D</t>
   </si>
   <si>
-    <t>156566</t>
-  </si>
-  <si>
-    <t>MASCARPONE D'ANTELLI 250G DK PL</t>
-  </si>
-  <si>
-    <t>171560</t>
-  </si>
-  <si>
-    <t>MASCARPONE  K 2 GENERALE</t>
-  </si>
-  <si>
-    <t>172023</t>
-  </si>
-  <si>
-    <t>MASCARPONE 250 G D  FRESENIUS</t>
+    <t>156570</t>
+  </si>
+  <si>
+    <t>GALBANI MAXI BUFALA 200G EXP</t>
   </si>
   <si>
     <t>175979</t>
   </si>
   <si>
     <t>GRAN GUSTO GRATTUGIATO 1KG GALBANI</t>
-  </si>
-  <si>
-    <t>176228</t>
-  </si>
-  <si>
-    <t>MASCARPONE 250G CUCINA ALDI DE</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>Ideal per truck:</t>
-  </si>
-  <si>
-    <t>Real per truck:</t>
-  </si>
-  <si>
-    <t>Closeness Percentage:</t>
-  </si>
-  <si>
-    <t>050762</t>
-  </si>
-  <si>
-    <t>GORGONZOLA D.O.P. 1/8</t>
-  </si>
-  <si>
-    <t>099495</t>
-  </si>
-  <si>
-    <t>MOZZ FETTE GALB PROF.K1 ESTERO</t>
-  </si>
-  <si>
-    <t>115349</t>
-  </si>
-  <si>
-    <t>MOZZA GALBANI 125G DE</t>
-  </si>
-  <si>
-    <t>131460</t>
-  </si>
-  <si>
-    <t>S.L. MINI K1 DA 5G</t>
-  </si>
-  <si>
-    <t>131578</t>
-  </si>
-  <si>
-    <t>MOZZARELLA K1 G.PRO X8 D-A-DK-S</t>
-  </si>
-  <si>
-    <t>132086</t>
-  </si>
-  <si>
-    <t>GALBANI MOZZARELLA CUCINA 400G</t>
-  </si>
-  <si>
-    <t>156457</t>
-  </si>
-  <si>
-    <t>MOZZ.MINI BUFALA 150G EXP</t>
-  </si>
-  <si>
-    <t>156570</t>
-  </si>
-  <si>
-    <t>GALBANI MAXI BUFALA 200G EXP</t>
-  </si>
-  <si>
-    <t>176229</t>
-  </si>
-  <si>
-    <t>MOZZA 400G CUCINA ALDI</t>
   </si>
 </sst>
 </file>
@@ -249,7 +249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -419,16 +419,16 @@
         <v>19</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>576.0</v>
+        <v>1056.0</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>96.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>1872.0</v>
+        <v>3432.0</v>
       </c>
       <c r="G7" t="n" s="0">
         <v>312.0</v>
@@ -445,19 +445,19 @@
         <v>21</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>600.0</v>
+        <v>192.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>120.0</v>
+        <v>96.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>1284.0</v>
+        <v>624.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>256.8</v>
+        <v>312.0</v>
       </c>
       <c r="H8" t="n" s="0">
         <v>1.0</v>
@@ -471,19 +471,19 @@
         <v>23</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>126.0</v>
+        <v>600.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>126.0</v>
+        <v>120.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>286.02</v>
+        <v>1284.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>286.02</v>
+        <v>256.8</v>
       </c>
       <c r="H9" t="n" s="0">
         <v>1.0</v>
@@ -497,19 +497,19 @@
         <v>25</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>40.0</v>
+        <v>126.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>254.4</v>
+        <v>1083.6</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>254.4</v>
+        <v>361.2</v>
       </c>
       <c r="H10" t="n" s="0">
         <v>1.0</v>
@@ -523,19 +523,19 @@
         <v>27</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>60.0</v>
+        <v>126.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>60.0</v>
+        <v>126.0</v>
       </c>
       <c r="E11" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>234.0</v>
+        <v>286.02</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>234.0</v>
+        <v>286.02</v>
       </c>
       <c r="H11" t="n" s="0">
         <v>1.0</v>
@@ -549,19 +549,19 @@
         <v>29</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>60.0</v>
+        <v>168.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>60.0</v>
+        <v>168.0</v>
       </c>
       <c r="E12" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>234.0</v>
+        <v>359.52</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>234.0</v>
+        <v>359.52</v>
       </c>
       <c r="H12" t="n" s="0">
         <v>1.0</v>
@@ -575,19 +575,19 @@
         <v>31</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>1152.0</v>
+        <v>40.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>72.0</v>
+        <v>40.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>2649.6</v>
+        <v>254.4</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>165.6</v>
+        <v>254.4</v>
       </c>
       <c r="H13" t="n" s="0">
         <v>1.0</v>
@@ -601,19 +601,19 @@
         <v>33</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>126.0</v>
+        <v>60.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>126.0</v>
+        <v>60.0</v>
       </c>
       <c r="E14" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>286.02</v>
+        <v>234.0</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>286.02</v>
+        <v>234.0</v>
       </c>
       <c r="H14" t="n" s="0">
         <v>1.0</v>
@@ -627,19 +627,19 @@
         <v>35</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="E15" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>260.0</v>
+        <v>234.0</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>260.0</v>
+        <v>234.0</v>
       </c>
       <c r="H15" t="n" s="0">
         <v>1.0</v>
@@ -653,19 +653,19 @@
         <v>37</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>810.0</v>
+        <v>576.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>135.0</v>
+        <v>144.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>1863.0</v>
+        <v>1342.08</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>310.5</v>
+        <v>335.52</v>
       </c>
       <c r="H16" t="n" s="0">
         <v>1.0</v>
@@ -679,19 +679,19 @@
         <v>39</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>16.0</v>
+        <v>126.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>16.0</v>
+        <v>126.0</v>
       </c>
       <c r="E17" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>171.2</v>
+        <v>286.02</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>171.2</v>
+        <v>286.02</v>
       </c>
       <c r="H17" t="n" s="0">
         <v>1.0</v>
@@ -705,66 +705,144 @@
         <v>41</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>504.0</v>
+        <v>20.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>126.0</v>
+        <v>20.0</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F18" t="n" s="0">
-        <v>1159.2</v>
+        <v>260.0</v>
       </c>
       <c r="G18" t="n" s="0">
-        <v>289.8</v>
+        <v>260.0</v>
       </c>
       <c r="H18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>810.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>1863.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>310.5</v>
+      </c>
+      <c r="H19" t="n" s="0">
         <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>504.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>126.0</v>
       </c>
       <c r="E20" t="n" s="0">
-        <v>61.110000133514404</v>
+        <v>4.0</v>
       </c>
       <c r="F20" t="n" s="0">
-        <v>21569.440000000002</v>
+        <v>1159.2</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>289.8</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>108.0</v>
       </c>
       <c r="E21" t="n" s="0">
-        <v>60.8050000667572</v>
+        <v>1.0</v>
       </c>
       <c r="F21" t="n" s="0">
-        <v>21441.945000000003</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="E22" t="n" s="0">
-        <v>61.110000133514404</v>
-      </c>
-      <c r="F22" t="n" s="0">
-        <v>21569.440000000002</v>
+        <v>378.0</v>
+      </c>
+      <c r="G21" t="n" s="0">
+        <v>378.0</v>
+      </c>
+      <c r="H21" t="n" s="0">
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E23" t="n" s="0">
-        <v>99.50089990821334</v>
+        <v>60.019999980926514</v>
       </c>
       <c r="F23" t="n" s="0">
-        <v>99.40890908618861</v>
+        <v>18095.84</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E24" t="n" s="0">
+        <v>60.75999999046326</v>
+      </c>
+      <c r="F24" t="n" s="0">
+        <v>18441.945000000003</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="E25" t="n" s="0">
+        <v>60.019999980926514</v>
+      </c>
+      <c r="F25" t="n" s="0">
+        <v>18095.84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E26" t="n" s="0">
+        <v>98.78209346666739</v>
+      </c>
+      <c r="F26" t="n" s="0">
+        <v>98.1232727892855</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +852,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -808,25 +886,25 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>480.0</v>
+        <v>3744.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>96.0</v>
+        <v>144.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>5.0</v>
+        <v>26.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>1560.0</v>
+        <v>11157.12</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>312.0</v>
+        <v>429.12</v>
       </c>
       <c r="H2" t="n" s="0">
         <v>1.0</v>
@@ -834,25 +912,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>192.0</v>
+        <v>21.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>96.0</v>
+        <v>42.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>2.0</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>624.0</v>
+        <v>172.83</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>312.0</v>
+        <v>345.66</v>
       </c>
       <c r="H3" t="n" s="0">
         <v>1.0</v>
@@ -860,25 +938,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>126.0</v>
+        <v>63.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>42.0</v>
+        <v>63.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>1083.6</v>
+        <v>522.9</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>361.2</v>
+        <v>522.9</v>
       </c>
       <c r="H4" t="n" s="0">
         <v>1.0</v>
@@ -886,25 +964,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>3744.0</v>
+        <v>1944.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>144.0</v>
+        <v>72.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>11157.12</v>
+        <v>4471.2</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>429.12</v>
+        <v>165.6</v>
       </c>
       <c r="H5" t="n" s="0">
         <v>1.0</v>
@@ -912,25 +990,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>21.0</v>
+        <v>320.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>42.0</v>
+        <v>160.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>0.5</v>
+        <v>2.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>172.83</v>
+        <v>780.8</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>345.66</v>
+        <v>390.4</v>
       </c>
       <c r="H6" t="n" s="0">
         <v>1.0</v>
@@ -938,25 +1016,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>63.0</v>
+        <v>16.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>63.0</v>
+        <v>16.0</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>522.9</v>
+        <v>171.2</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>522.9</v>
+        <v>171.2</v>
       </c>
       <c r="H7" t="n" s="0">
         <v>1.0</v>
@@ -964,176 +1042,72 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>168.0</v>
+        <v>432.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>168.0</v>
+        <v>108.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>359.52</v>
+        <v>1512.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>359.52</v>
+        <v>378.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C9" t="n" s="0">
-        <v>792.0</v>
-      </c>
-      <c r="D9" t="n" s="0">
-        <v>72.0</v>
-      </c>
-      <c r="E9" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="F9" t="n" s="0">
-        <v>1821.6</v>
-      </c>
-      <c r="G9" t="n" s="0">
-        <v>165.6</v>
-      </c>
-      <c r="H9" t="n" s="0">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="C10" t="n" s="0">
-        <v>576.0</v>
-      </c>
-      <c r="D10" t="n" s="0">
-        <v>144.0</v>
+        <v>48</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>4.0</v>
+        <v>61.5</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>1342.08</v>
-      </c>
-      <c r="G10" t="n" s="0">
-        <v>335.52</v>
-      </c>
-      <c r="H10" t="n" s="0">
-        <v>1.0</v>
+        <v>18788.05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="C11" t="n" s="0">
-        <v>320.0</v>
-      </c>
-      <c r="D11" t="n" s="0">
-        <v>160.0</v>
+        <v>49</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>2.0</v>
+        <v>60.75999999046326</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>780.8</v>
-      </c>
-      <c r="G11" t="n" s="0">
-        <v>390.4</v>
-      </c>
-      <c r="H11" t="n" s="0">
-        <v>1.0</v>
+        <v>18441.945000000003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="C12" t="n" s="0">
-        <v>540.0</v>
-      </c>
-      <c r="D12" t="n" s="0">
-        <v>108.0</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>5.0</v>
+        <v>61.5</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>1890.0</v>
-      </c>
-      <c r="G12" t="n" s="0">
-        <v>378.0</v>
-      </c>
-      <c r="H12" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="E14" t="n" s="0">
-        <v>60.5</v>
-      </c>
-      <c r="F14" t="n" s="0">
-        <v>21314.45</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="E15" t="n" s="0">
-        <v>60.8050000667572</v>
-      </c>
-      <c r="F15" t="n" s="0">
-        <v>21441.945000000003</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="E16" t="n" s="0">
-        <v>60.5</v>
-      </c>
-      <c r="F16" t="n" s="0">
-        <v>21314.45</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="E17" t="n" s="0">
-        <v>99.49839640420632</v>
-      </c>
-      <c r="F17" t="n" s="0">
-        <v>99.40539442667163</v>
+        <v>18788.05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>98.79674795197278</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>98.1578450131866</v>
       </c>
     </row>
   </sheetData>

--- a/TrucksProject/TrucksServer/trucks/truck_optimization.xlsx
+++ b/TrucksProject/TrucksServer/trucks/truck_optimization.xlsx
@@ -806,7 +806,7 @@
         <v>48</v>
       </c>
       <c r="E23" t="n" s="0">
-        <v>60.019999980926514</v>
+        <v>60.110000133514404</v>
       </c>
       <c r="F23" t="n" s="0">
         <v>18095.84</v>
@@ -817,7 +817,7 @@
         <v>49</v>
       </c>
       <c r="E24" t="n" s="0">
-        <v>60.75999999046326</v>
+        <v>60.8050000667572</v>
       </c>
       <c r="F24" t="n" s="0">
         <v>18441.945000000003</v>
@@ -828,7 +828,7 @@
         <v>50</v>
       </c>
       <c r="E25" t="n" s="0">
-        <v>60.019999980926514</v>
+        <v>60.110000133514404</v>
       </c>
       <c r="F25" t="n" s="0">
         <v>18095.84</v>
@@ -839,7 +839,7 @@
         <v>51</v>
       </c>
       <c r="E26" t="n" s="0">
-        <v>98.78209346666739</v>
+        <v>98.85700200233572</v>
       </c>
       <c r="F26" t="n" s="0">
         <v>98.1232727892855</v>
@@ -1082,7 +1082,7 @@
         <v>49</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>60.75999999046326</v>
+        <v>60.8050000667572</v>
       </c>
       <c r="F11" t="n" s="0">
         <v>18441.945000000003</v>
@@ -1104,7 +1104,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>98.79674795197278</v>
+        <v>98.86991880773529</v>
       </c>
       <c r="F13" t="n" s="0">
         <v>98.1578450131866</v>
